--- a/1차_가공/성균관대학교 국제캠퍼스 22년 1학기 1차 가공 완료.xlsx
+++ b/1차_가공/성균관대학교 국제캠퍼스 22년 1학기 1차 가공 완료.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21623" uniqueCount="7755">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21625" uniqueCount="7755">
   <si>
     <t>대학교명</t>
   </si>
@@ -9526,61 +9526,61 @@
     <t>Macroeconomics</t>
   </si>
   <si>
-    <t>Introduction to Financial Accounting</t>
-  </si>
-  <si>
-    <t>Introduction to Managerial Accounting</t>
-  </si>
-  <si>
-    <t>Financial Management</t>
-  </si>
-  <si>
-    <t>Marketing Management</t>
-  </si>
-  <si>
-    <t>Operations Management</t>
-  </si>
-  <si>
-    <t>Strategic Management</t>
-  </si>
-  <si>
-    <t>Intermediate Corporate Finance</t>
-  </si>
-  <si>
-    <t>Marketing Research</t>
-  </si>
-  <si>
-    <t>Consumer Behavior</t>
-  </si>
-  <si>
-    <t>IT Management</t>
-  </si>
-  <si>
-    <t>Business Statistics</t>
-  </si>
-  <si>
-    <t>Derivative Securities and Corporate Risk Management</t>
-  </si>
-  <si>
-    <t>Marketing Strategy and Planning</t>
-  </si>
-  <si>
-    <t>Organizations and Organizational Change</t>
-  </si>
-  <si>
-    <t>Business Communication</t>
-  </si>
-  <si>
-    <t>Behavioral Finance &amp; FinTech</t>
-  </si>
-  <si>
-    <t>Digital Marketing Strategy and Analytics</t>
-  </si>
-  <si>
-    <t>Introduction to Microeconomics</t>
-  </si>
-  <si>
-    <t>Forecasting and Time Series Analysis Utilizing Big Data</t>
+    <t>IntroductiontoFinancialAccounting</t>
+  </si>
+  <si>
+    <t>IntroductiontoManagerialAccounting</t>
+  </si>
+  <si>
+    <t>FinancialManagement</t>
+  </si>
+  <si>
+    <t>MarketingManagement</t>
+  </si>
+  <si>
+    <t>OperationsManagement</t>
+  </si>
+  <si>
+    <t>StrategicManagement</t>
+  </si>
+  <si>
+    <t>IntermediateCorporateFinance</t>
+  </si>
+  <si>
+    <t>MarketingResearch</t>
+  </si>
+  <si>
+    <t>ConsumerBehavior</t>
+  </si>
+  <si>
+    <t>ITManagement</t>
+  </si>
+  <si>
+    <t>BusinessStatistics</t>
+  </si>
+  <si>
+    <t>DerivativeSecuritiesandCorporateRiskManagement</t>
+  </si>
+  <si>
+    <t>MarketingStrategyandPlanning</t>
+  </si>
+  <si>
+    <t>OrganizationsandOrganizationalChange</t>
+  </si>
+  <si>
+    <t>BusinessCommunication</t>
+  </si>
+  <si>
+    <t>BehavioralFinance&amp;FinTech</t>
+  </si>
+  <si>
+    <t>DigitalMarketingStrategyandAnalytics</t>
+  </si>
+  <si>
+    <t>IntroductiontoMicroeconomics</t>
+  </si>
+  <si>
+    <t>ForecastingandTimeSeriesAnalysisUtilizingBigData</t>
   </si>
   <si>
     <t>해석학1</t>
@@ -9697,34 +9697,34 @@
     <t>경제법</t>
   </si>
   <si>
-    <t>Intermediate Microeconomic Theory</t>
-  </si>
-  <si>
-    <t>Intermediate Macroeconomic Theory</t>
-  </si>
-  <si>
-    <t>Statistical Analysis for Economics</t>
-  </si>
-  <si>
-    <t>Introduction to Macroeconomics</t>
-  </si>
-  <si>
-    <t>Industrial Organization</t>
-  </si>
-  <si>
-    <t>Money and Banking</t>
+    <t>IntermediateMicroeconomicTheory</t>
+  </si>
+  <si>
+    <t>IntermediateMacroeconomicTheory</t>
+  </si>
+  <si>
+    <t>StatisticalAnalysisforEconomics</t>
+  </si>
+  <si>
+    <t>IntroductiontoMacroeconomics</t>
+  </si>
+  <si>
+    <t>IndustrialOrganization</t>
+  </si>
+  <si>
+    <t>MoneyandBanking</t>
   </si>
   <si>
     <t>Econometrics</t>
   </si>
   <si>
-    <t>Asset Pricing</t>
-  </si>
-  <si>
-    <t>Fiscal Policy</t>
-  </si>
-  <si>
-    <t>Labor Economics</t>
+    <t>AssetPricing</t>
+  </si>
+  <si>
+    <t>FiscalPolicy</t>
+  </si>
+  <si>
+    <t>LaborEconomics</t>
   </si>
   <si>
     <t>물리화학1</t>
@@ -10192,7 +10192,7 @@
     <t>나노공학현장실습3</t>
   </si>
   <si>
-    <t>양자컴퓨터의 이해</t>
+    <t>양자컴퓨터의이해</t>
   </si>
   <si>
     <t>나노전달현상개론</t>
@@ -10201,7 +10201,7 @@
     <t>바이오시스템공학</t>
   </si>
   <si>
-    <t>나노바이오산업의 이해</t>
+    <t>나노바이오산업의이해</t>
   </si>
   <si>
     <t>에너지소재전기화학</t>
@@ -10813,10 +10813,10 @@
     <t>민사소송실무와판례</t>
   </si>
   <si>
-    <t>e-Government Law</t>
-  </si>
-  <si>
-    <t>Digital Law</t>
+    <t>e-GovernmentLaw</t>
+  </si>
+  <si>
+    <t>DigitalLaw</t>
   </si>
   <si>
     <t>형벌론</t>
@@ -10909,7 +10909,7 @@
     <t>자료구조</t>
   </si>
   <si>
-    <t>Social Learning과 인터넷</t>
+    <t>SocialLearning과인터넷</t>
   </si>
   <si>
     <t>데이터통신기술</t>
@@ -10999,7 +10999,7 @@
     <t>커뮤니케이션이론</t>
   </si>
   <si>
-    <t>Principles of Human Communication</t>
+    <t>PrinciplesofHumanCommunication</t>
   </si>
   <si>
     <t>AI와커뮤니케이션의쟁점들</t>
@@ -23636,7 +23636,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2728"/>
+  <dimension ref="A1:J2729"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -110305,6 +110305,17 @@
         <v>7469</v>
       </c>
     </row>
+    <row r="2729" spans="1:10">
+      <c r="A2729" s="1">
+        <v>2727</v>
+      </c>
+      <c r="B2729" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2729" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
